--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -29,16 +29,16 @@
     <t>Названия университетов</t>
   </si>
   <si>
+    <t>Медицина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Самарский Медицинский Институт; Московский Государственный Медицинский Университет; Тамбовский Университет Медицины; </t>
+  </si>
+  <si>
     <t>Физика</t>
   </si>
   <si>
     <t xml:space="preserve">Московский Придуманный Институт; Московский Выдуманный Университет; </t>
-  </si>
-  <si>
-    <t>Медицина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Самарский Медицинский Институт; Московский Государственный Медицинский Университет; Тамбовский Университет Медицины; </t>
   </si>
   <si>
     <t>Лингвистика</t>
@@ -129,13 +129,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>4.539999961853027</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>6</v>
@@ -146,13 +146,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>4.329999923706055</v>
+        <v>4.539999961853027</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>8</v>
